--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16433,6 +16433,297 @@
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="n">
+        <v>323.59</v>
+      </c>
+      <c r="D549" t="n">
+        <v>324.4833333333333</v>
+      </c>
+      <c r="E549" t="n">
+        <v>329.1033333333333</v>
+      </c>
+      <c r="F549" t="n">
+        <v>327.12</v>
+      </c>
+      <c r="G549" t="n">
+        <v>328.2018181818182</v>
+      </c>
+      <c r="H549" t="n">
+        <v>317.21</v>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>486.89</v>
+      </c>
+      <c r="C550" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="D550" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="E550" t="n">
+        <v>377.35</v>
+      </c>
+      <c r="F550" t="n">
+        <v>366.92</v>
+      </c>
+      <c r="G550" t="n">
+        <v>363.4418181818182</v>
+      </c>
+      <c r="H550" t="n">
+        <v>344.76</v>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="n">
+        <v>344.66</v>
+      </c>
+      <c r="D551" t="n">
+        <v>345.8544444444445</v>
+      </c>
+      <c r="E551" t="n">
+        <v>350.7644444444445</v>
+      </c>
+      <c r="F551" t="n">
+        <v>344.11</v>
+      </c>
+      <c r="G551" t="n">
+        <v>339.4272727272727</v>
+      </c>
+      <c r="H551" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>482.3</v>
+      </c>
+      <c r="C552" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="D552" t="n">
+        <v>378.7288888888889</v>
+      </c>
+      <c r="E552" t="n">
+        <v>387.6188888888889</v>
+      </c>
+      <c r="F552" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="G552" t="n">
+        <v>395.7236363636364</v>
+      </c>
+      <c r="H552" t="n">
+        <v>367.61</v>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>518.01</v>
+      </c>
+      <c r="C553" t="n">
+        <v>364.34</v>
+      </c>
+      <c r="D553" t="n">
+        <v>371.1911111111111</v>
+      </c>
+      <c r="E553" t="n">
+        <v>372.6411111111111</v>
+      </c>
+      <c r="F553" t="n">
+        <v>371.89</v>
+      </c>
+      <c r="G553" t="n">
+        <v>358.5981818181818</v>
+      </c>
+      <c r="H553" t="n">
+        <v>364.77</v>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="n">
+        <v>357.51</v>
+      </c>
+      <c r="D554" t="n">
+        <v>365.12</v>
+      </c>
+      <c r="E554" t="n">
+        <v>365.47</v>
+      </c>
+      <c r="F554" t="n">
+        <v>367.83</v>
+      </c>
+      <c r="G554" t="n">
+        <v>351.2154545454546</v>
+      </c>
+      <c r="H554" t="n">
+        <v>360.02</v>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>492.78</v>
+      </c>
+      <c r="C555" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="D555" t="n">
+        <v>382.1855555555555</v>
+      </c>
+      <c r="E555" t="n">
+        <v>397.0355555555556</v>
+      </c>
+      <c r="F555" t="n">
+        <v>387.59</v>
+      </c>
+      <c r="G555" t="n">
+        <v>388.1881818181818</v>
+      </c>
+      <c r="H555" t="n">
+        <v>369.76</v>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>496.45</v>
+      </c>
+      <c r="C556" t="n">
+        <v>371.62</v>
+      </c>
+      <c r="D556" t="n">
+        <v>389.5455555555556</v>
+      </c>
+      <c r="E556" t="n">
+        <v>408.8955555555555</v>
+      </c>
+      <c r="F556" t="n">
+        <v>411.73</v>
+      </c>
+      <c r="G556" t="n">
+        <v>412.3809090909091</v>
+      </c>
+      <c r="H556" t="n">
+        <v>389.94</v>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:12:21+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>491.17</v>
+      </c>
+      <c r="C557" t="n">
+        <v>372.85</v>
+      </c>
+      <c r="D557" t="n">
+        <v>390.94</v>
+      </c>
+      <c r="E557" t="n">
+        <v>407.21</v>
+      </c>
+      <c r="F557" t="n">
+        <v>407.04</v>
+      </c>
+      <c r="G557" t="n">
+        <v>405.8745454545455</v>
+      </c>
+      <c r="H557" t="n">
+        <v>387.01</v>
+      </c>
+      <c r="I557" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16449,7 +16740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22357,6 +22648,96 @@
       </c>
       <c r="B590" t="n">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -22525,28 +22906,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5113857850641914</v>
+        <v>0.5132740729224138</v>
       </c>
       <c r="J2" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01193864408595258</v>
+        <v>0.01247362703405841</v>
       </c>
       <c r="M2" t="n">
-        <v>20.34042557703599</v>
+        <v>20.09896289674565</v>
       </c>
       <c r="N2" t="n">
-        <v>1259.657021709513</v>
+        <v>1237.208159493798</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49164721042844</v>
+        <v>35.1739699137558</v>
       </c>
       <c r="P2" t="n">
-        <v>481.0280203934384</v>
+        <v>481.0102902886964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22602,28 +22983,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6223232110292489</v>
+        <v>0.6880580448392877</v>
       </c>
       <c r="J3" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09309635669328498</v>
+        <v>0.1113217713206377</v>
       </c>
       <c r="M3" t="n">
-        <v>11.70981857889283</v>
+        <v>11.87134694553391</v>
       </c>
       <c r="N3" t="n">
-        <v>216.5634530450197</v>
+        <v>222.0831711070783</v>
       </c>
       <c r="O3" t="n">
-        <v>14.71609503384032</v>
+        <v>14.90245520399502</v>
       </c>
       <c r="P3" t="n">
-        <v>324.893751322939</v>
+        <v>324.2919825087319</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22679,28 +23060,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.666249036643873</v>
+        <v>0.7763636020652898</v>
       </c>
       <c r="J4" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1348107718368513</v>
+        <v>0.1607460188201125</v>
       </c>
       <c r="M4" t="n">
-        <v>9.994503071545427</v>
+        <v>10.47006148797297</v>
       </c>
       <c r="N4" t="n">
-        <v>164.6371987660179</v>
+        <v>185.9313820366667</v>
       </c>
       <c r="O4" t="n">
-        <v>12.83110278838175</v>
+        <v>13.63566580833758</v>
       </c>
       <c r="P4" t="n">
-        <v>322.4897887873684</v>
+        <v>321.4757530740799</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22756,28 +23137,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7826307384694</v>
+        <v>0.8879825861198631</v>
       </c>
       <c r="J5" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1373529387702194</v>
+        <v>0.1591539937383535</v>
       </c>
       <c r="M5" t="n">
-        <v>11.4995181474354</v>
+        <v>11.92111835461195</v>
       </c>
       <c r="N5" t="n">
-        <v>220.6246445618988</v>
+        <v>243.9553128308335</v>
       </c>
       <c r="O5" t="n">
-        <v>14.85343881267563</v>
+        <v>15.61906888488662</v>
       </c>
       <c r="P5" t="n">
-        <v>328.094486605083</v>
+        <v>327.1178447925707</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22833,28 +23214,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7745632329063024</v>
+        <v>0.869425118459291</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K6" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1019247622859594</v>
+        <v>0.1205385716549457</v>
       </c>
       <c r="M6" t="n">
-        <v>13.81543419512257</v>
+        <v>14.18010362887539</v>
       </c>
       <c r="N6" t="n">
-        <v>301.9269063263764</v>
+        <v>321.6735114037371</v>
       </c>
       <c r="O6" t="n">
-        <v>17.37604403557888</v>
+        <v>17.93525888867337</v>
       </c>
       <c r="P6" t="n">
-        <v>330.3373102636144</v>
+        <v>329.4413615056347</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22910,28 +23291,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7951988135112579</v>
+        <v>0.9017173679364374</v>
       </c>
       <c r="J7" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06742553998632972</v>
+        <v>0.08348782998165671</v>
       </c>
       <c r="M7" t="n">
-        <v>17.39066371610122</v>
+        <v>17.75486730181278</v>
       </c>
       <c r="N7" t="n">
-        <v>526.4613107519012</v>
+        <v>548.4193419475058</v>
       </c>
       <c r="O7" t="n">
-        <v>22.94474473058921</v>
+        <v>23.41835480872868</v>
       </c>
       <c r="P7" t="n">
-        <v>323.3778905406189</v>
+        <v>322.4113909176228</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22987,28 +23368,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9129139784721729</v>
+        <v>0.9568574568594557</v>
       </c>
       <c r="J8" t="n">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K8" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08049893091208726</v>
+        <v>0.08961095969071797</v>
       </c>
       <c r="M8" t="n">
-        <v>18.07859144707206</v>
+        <v>18.14253737473591</v>
       </c>
       <c r="N8" t="n">
-        <v>561.6956109413213</v>
+        <v>561.4650151905128</v>
       </c>
       <c r="O8" t="n">
-        <v>23.70011837399386</v>
+        <v>23.69525300963281</v>
       </c>
       <c r="P8" t="n">
-        <v>327.1269051584065</v>
+        <v>326.7191880934836</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23045,7 +23426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44617,6 +44998,417 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-36.884946870531564,174.43828507452974</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-36.88424679294092,174.43808310042633</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-36.883543332127175,174.43783709439782</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-36.882839711100786,174.43759214651763</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-36.88214423547173,174.43731154353188</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-36.88142970851918,174.43708555182187</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-36.88597731750468,174.436691304432</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-36.88501884567379,174.43789387114154</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-36.88433369088337,174.43761078768662</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>-36.88365738624796,174.43731473687586</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>-36.88294803546856,174.43716645700937</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>-36.882253070963145,174.43694010854458</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>-36.88152449835083,174.43679986877004</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-36.88498926700234,174.4380546397511</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-36.88428979500026,174.43784937454015</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>-36.88359453882548,174.43760257385156</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-36.882885953269586,174.43741042645067</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>-36.88217890437708,174.437193225643</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>-36.88152016314999,174.436812934508</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-36.885968082261684,174.4367415044185</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-36.88503731714321,174.4377934727189</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-36.88435594270026,174.4374898415159</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-36.88368166139619,174.437203557351</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-36.88299942097525,174.43696452144914</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-36.88235276938171,174.43659985229075</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>-36.88160311662963,174.43656292238532</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-36.88603993149685,174.43635095037416</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-36.885028866154535,174.4378394066441</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-36.88434077579638,174.43757227886167</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>-36.88364625463193,174.43736571919558</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>-36.882961562300494,174.43711329921172</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>-36.88223811190637,174.43699116127684</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>-36.881593345280145,174.43659237220382</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-36.88501512319976,174.43791410393294</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-36.88432855995885,174.43763867589695</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>-36.88362930238425,174.43744335953662</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>-36.882950512214194,174.43715672389297</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>-36.88221531109537,174.4370689764097</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>-36.88157700233807,174.43664162804504</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-36.88598916836316,174.4366268865657</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-36.88501679328312,174.43790502651868</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-36.88436289790511,174.437452037468</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>-36.883703921842816,174.43710160462743</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>-36.88300429278277,174.43694537606098</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>-36.88232949714432,174.4366792774383</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>-36.881610513949305,174.4365406276232</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-36.88599655249688,174.43658674842786</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-36.88504351452374,174.43775978783367</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-36.88437770701912,174.43737154435064</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>-36.88373195806302,174.43697319824182</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>-36.88306999384557,174.43668718046789</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>-36.88240421294212,174.43642428123968</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>-36.88167994533602,174.43633136773374</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:12:21+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-36.8859859289978,174.43664449484703</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-36.88504598944905,174.43774633575123</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-36.8843805127857,174.43735629391486</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>-36.88372797353455,174.4369914474971</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>-36.883057229266406,174.4367373436079</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>-36.88238411901613,174.43649285966805</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>-36.88166986438901,174.43636175088358</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -22751,7 +22751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22842,35 +22842,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22929,27 +22934,28 @@
       <c r="P2" t="n">
         <v>481.0102902886964</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.44201625971826 -36.88499756068121, 174.4319525708283 -36.88684899275901)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4420162597183</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.88499756068121</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4319525708283</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.88684899275901</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4369844152733</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.88592327672011</v>
       </c>
     </row>
@@ -23006,27 +23012,28 @@
       <c r="P3" t="n">
         <v>324.2919825087319</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.44182402459234 -36.88429569619544, 174.4317603918808 -36.8861471222376)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4418240245923</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.88429569619544</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4317603918808</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.8861471222376</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4367922082366</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.88522140921652</v>
       </c>
     </row>
@@ -23083,27 +23090,28 @@
       <c r="P4" t="n">
         <v>321.4757530740799</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.4416317894669 -36.88359382525757, 174.43156821293246 -36.88544524526451)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4416317894669</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.88359382525757</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4315682129325</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.88544524526451</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4366000011997</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.88451953526104</v>
       </c>
     </row>
@@ -23160,27 +23168,28 @@
       <c r="P5" t="n">
         <v>327.1178447925707</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.44140019049001 -36.882765278229094, 174.43143782553307 -36.884940399499186)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.44140019049</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.88276527822909</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4314378255331</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.88494039949919</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4364190080115</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.88385283886414</v>
       </c>
     </row>
@@ -23237,27 +23246,28 @@
       <c r="P6" t="n">
         <v>329.4413615056347</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.44109088190845 -36.88194932589692, 174.4312494245461 -36.88445354263404)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4410908819085</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.88194932589692</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4312494245461</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.88445354263404</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4361701532273</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.88320143426548</v>
       </c>
     </row>
@@ -23314,27 +23324,28 @@
       <c r="P7" t="n">
         <v>322.4113909176228</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.4407707885993 -36.88113055963542, 174.4310728045128 -36.88397207704532)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4407707885993</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.88113055963542</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4310728045128</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.88397207704532</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.435921796556</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.88255131834038</v>
       </c>
     </row>
@@ -23391,27 +23402,28 @@
       <c r="P8" t="n">
         <v>326.7191880934836</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.44037484695176 -36.88033825230318, 174.43083411783297 -36.88350372975511)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4403748469518</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.88033825230318</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.430834117833</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.88350372975511</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4356044823924</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.88192099102915</v>
       </c>
     </row>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16726,6 +16726,126 @@
       <c r="I557" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>501.07</v>
+      </c>
+      <c r="C558" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="D558" t="n">
+        <v>370.3211111111111</v>
+      </c>
+      <c r="E558" t="n">
+        <v>383.3211111111111</v>
+      </c>
+      <c r="F558" t="n">
+        <v>392.72</v>
+      </c>
+      <c r="G558" t="n">
+        <v>393.6045454545454</v>
+      </c>
+      <c r="H558" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>373.99</v>
+      </c>
+      <c r="C559" t="n">
+        <v>358.19</v>
+      </c>
+      <c r="D559" t="n">
+        <v>358.2944444444445</v>
+      </c>
+      <c r="E559" t="n">
+        <v>365.3244444444445</v>
+      </c>
+      <c r="F559" t="n">
+        <v>368.59</v>
+      </c>
+      <c r="G559" t="n">
+        <v>362.23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>381.53</v>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>363.89</v>
+      </c>
+      <c r="C560" t="n">
+        <v>356.17</v>
+      </c>
+      <c r="D560" t="n">
+        <v>356.7577777777778</v>
+      </c>
+      <c r="E560" t="n">
+        <v>362.6477777777778</v>
+      </c>
+      <c r="F560" t="n">
+        <v>368.09</v>
+      </c>
+      <c r="G560" t="n">
+        <v>357.3272727272728</v>
+      </c>
+      <c r="H560" t="n">
+        <v>378.13</v>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="n">
+        <v>362.51</v>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16740,7 +16860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22738,6 +22858,46 @@
       </c>
       <c r="B599" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -22911,28 +23071,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5132740729224138</v>
+        <v>0.3703436463078536</v>
       </c>
       <c r="J2" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01247362703405841</v>
+        <v>0.006152349722435724</v>
       </c>
       <c r="M2" t="n">
-        <v>20.09896289674565</v>
+        <v>20.86381470737397</v>
       </c>
       <c r="N2" t="n">
-        <v>1237.208159493798</v>
+        <v>1326.417927037304</v>
       </c>
       <c r="O2" t="n">
-        <v>35.1739699137558</v>
+        <v>36.42002096426229</v>
       </c>
       <c r="P2" t="n">
-        <v>481.0102902886964</v>
+        <v>482.3590758565064</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22989,28 +23149,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6880580448392877</v>
+        <v>0.7105540595377955</v>
       </c>
       <c r="J3" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1113217713206377</v>
+        <v>0.1183371492872742</v>
       </c>
       <c r="M3" t="n">
-        <v>11.87134694553391</v>
+        <v>11.90087723558096</v>
       </c>
       <c r="N3" t="n">
-        <v>222.0831711070783</v>
+        <v>222.7378649367137</v>
       </c>
       <c r="O3" t="n">
-        <v>14.90245520399502</v>
+        <v>14.9244050111458</v>
       </c>
       <c r="P3" t="n">
-        <v>324.2919825087319</v>
+        <v>324.0842609590263</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23067,28 +23227,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7763636020652898</v>
+        <v>0.8020389404996651</v>
       </c>
       <c r="J4" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K4" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1607460188201125</v>
+        <v>0.169411560107001</v>
       </c>
       <c r="M4" t="n">
-        <v>10.47006148797297</v>
+        <v>10.54459282958007</v>
       </c>
       <c r="N4" t="n">
-        <v>185.9313820366667</v>
+        <v>187.6887232948945</v>
       </c>
       <c r="O4" t="n">
-        <v>13.63566580833758</v>
+        <v>13.69995340484392</v>
       </c>
       <c r="P4" t="n">
-        <v>321.4757530740799</v>
+        <v>321.2372063406648</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23145,28 +23305,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8879825861198631</v>
+        <v>0.9123997435052431</v>
       </c>
       <c r="J5" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1591539937383535</v>
+        <v>0.1665819818514641</v>
       </c>
       <c r="M5" t="n">
-        <v>11.92111835461195</v>
+        <v>11.97738817671663</v>
       </c>
       <c r="N5" t="n">
-        <v>243.9553128308335</v>
+        <v>245.5743891941268</v>
       </c>
       <c r="O5" t="n">
-        <v>15.61906888488662</v>
+        <v>15.6708132907685</v>
       </c>
       <c r="P5" t="n">
-        <v>327.1178447925707</v>
+        <v>326.8896664690446</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23223,28 +23383,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.869425118459291</v>
+        <v>0.905551906872614</v>
       </c>
       <c r="J6" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1205385716549457</v>
+        <v>0.1296403867058086</v>
       </c>
       <c r="M6" t="n">
-        <v>14.18010362887539</v>
+        <v>14.25163063639055</v>
       </c>
       <c r="N6" t="n">
-        <v>321.6735114037371</v>
+        <v>324.0403891779203</v>
       </c>
       <c r="O6" t="n">
-        <v>17.93525888867337</v>
+        <v>18.00112188664696</v>
       </c>
       <c r="P6" t="n">
-        <v>329.4413615056347</v>
+        <v>329.0974213182787</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23301,28 +23461,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9017173679364374</v>
+        <v>0.9339674188533401</v>
       </c>
       <c r="J7" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08348782998165671</v>
+        <v>0.08919768777977</v>
       </c>
       <c r="M7" t="n">
-        <v>17.75486730181278</v>
+        <v>17.82601816374316</v>
       </c>
       <c r="N7" t="n">
-        <v>548.4193419475058</v>
+        <v>550.925921924651</v>
       </c>
       <c r="O7" t="n">
-        <v>23.41835480872868</v>
+        <v>23.47181121951715</v>
       </c>
       <c r="P7" t="n">
-        <v>322.4113909176228</v>
+        <v>322.1164199949482</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23379,28 +23539,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9568574568594557</v>
+        <v>1.001585644570808</v>
       </c>
       <c r="J8" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08961095969071797</v>
+        <v>0.09746727701276969</v>
       </c>
       <c r="M8" t="n">
-        <v>18.14253737473591</v>
+        <v>18.25573461775351</v>
       </c>
       <c r="N8" t="n">
-        <v>561.4650151905128</v>
+        <v>564.8441085185145</v>
       </c>
       <c r="O8" t="n">
-        <v>23.69525300963281</v>
+        <v>23.76644921982488</v>
       </c>
       <c r="P8" t="n">
-        <v>326.7191880934836</v>
+        <v>326.3019740207517</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23438,7 +23598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45421,6 +45581,170 @@
         </is>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-36.88600584803583,174.4365362202972</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-36.88502938931149,174.43783656311572</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-36.88433902524944,174.43758179366512</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>-36.88367150167341,174.4372500886738</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>-36.88301825498525,174.43689050686194</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>-36.88234622485985,174.43662218792358</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>-36.881674268353144,174.43634847769965</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-36.885750152610186,174.43792606727885</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-36.885016491460874,174.43790666701526</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-36.88431482604064,174.43771332392805</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-36.88362895829565,174.4374449354403</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-36.88295258070444,174.43714859513588</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>-36.88224932839334,174.43695288131156</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>-36.88165100990112,174.43641857668445</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-36.88572982988893,174.4380365284148</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-36.88501242691915,174.4379287590346</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-36.88431173405818,174.43773012975632</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-36.883622630739126,174.43747391522342</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-36.88295121985566,174.43715394300244</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>-36.882234186834964,174.43700455686647</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>-36.8816393118478,174.43645383355374</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-36.8829360327671,174.43721362517974</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16768,9 +16768,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B559" t="n">
-        <v>373.99</v>
-      </c>
+      <c r="B559" t="inlineStr"/>
       <c r="C559" t="n">
         <v>358.19</v>
       </c>
@@ -16801,9 +16799,7 @@
           <t>2025-04-12 22:05:36+00:00</t>
         </is>
       </c>
-      <c r="B560" t="n">
-        <v>363.89</v>
-      </c>
+      <c r="B560" t="inlineStr"/>
       <c r="C560" t="n">
         <v>356.17</v>
       </c>
@@ -16841,9 +16837,141 @@
       <c r="F561" t="n">
         <v>362.51</v>
       </c>
-      <c r="G561" t="inlineStr"/>
+      <c r="G561" t="n">
+        <v>406.4390909090909</v>
+      </c>
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>488.79</v>
+      </c>
+      <c r="C562" t="n">
+        <v>354.49</v>
+      </c>
+      <c r="D562" t="n">
+        <v>352.2555555555556</v>
+      </c>
+      <c r="E562" t="n">
+        <v>367.4055555555556</v>
+      </c>
+      <c r="F562" t="n">
+        <v>383.06</v>
+      </c>
+      <c r="G562" t="n">
+        <v>400.0518181818182</v>
+      </c>
+      <c r="H562" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>501.18</v>
+      </c>
+      <c r="C563" t="n">
+        <v>358.13</v>
+      </c>
+      <c r="D563" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="E563" t="n">
+        <v>364.37</v>
+      </c>
+      <c r="F563" t="n">
+        <v>373.13</v>
+      </c>
+      <c r="G563" t="n">
+        <v>390.6681818181818</v>
+      </c>
+      <c r="H563" t="n">
+        <v>407.42</v>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="n">
+        <v>341</v>
+      </c>
+      <c r="D564" t="n">
+        <v>334.9377777777778</v>
+      </c>
+      <c r="E564" t="n">
+        <v>340.5977777777778</v>
+      </c>
+      <c r="F564" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="G564" t="n">
+        <v>333.8681818181818</v>
+      </c>
+      <c r="H564" t="n">
+        <v>351</v>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>497.73</v>
+      </c>
+      <c r="C565" t="n">
+        <v>356.76</v>
+      </c>
+      <c r="D565" t="n">
+        <v>345.4444444444445</v>
+      </c>
+      <c r="E565" t="n">
+        <v>352.0744444444445</v>
+      </c>
+      <c r="F565" t="n">
+        <v>353.91</v>
+      </c>
+      <c r="G565" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="H565" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="I565" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -16860,7 +16988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B603"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22898,6 +23026,46 @@
       </c>
       <c r="B603" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -23071,28 +23239,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3703436463078536</v>
+        <v>0.5201288381911521</v>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006152349722435724</v>
+        <v>0.01312797900597085</v>
       </c>
       <c r="M2" t="n">
-        <v>20.86381470737397</v>
+        <v>19.90611610713031</v>
       </c>
       <c r="N2" t="n">
-        <v>1326.417927037304</v>
+        <v>1221.479926101148</v>
       </c>
       <c r="O2" t="n">
-        <v>36.42002096426229</v>
+        <v>34.94967705288774</v>
       </c>
       <c r="P2" t="n">
-        <v>482.3590758565064</v>
+        <v>480.9456604899037</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23149,28 +23317,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7105540595377955</v>
+        <v>0.7275089561727902</v>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K3" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1183371492872742</v>
+        <v>0.1247656099268435</v>
       </c>
       <c r="M3" t="n">
-        <v>11.90087723558096</v>
+        <v>11.88435797569256</v>
       </c>
       <c r="N3" t="n">
-        <v>222.7378649367137</v>
+        <v>222.0620701212506</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9244050111458</v>
+        <v>14.90174721706319</v>
       </c>
       <c r="P3" t="n">
-        <v>324.0842609590263</v>
+        <v>323.9267624626268</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23227,28 +23395,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8020389404996651</v>
+        <v>0.8104481406164245</v>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>0.169411560107001</v>
+        <v>0.174418838195492</v>
       </c>
       <c r="M4" t="n">
-        <v>10.54459282958007</v>
+        <v>10.5287663717602</v>
       </c>
       <c r="N4" t="n">
-        <v>187.6887232948945</v>
+        <v>186.7822914831463</v>
       </c>
       <c r="O4" t="n">
-        <v>13.69995340484392</v>
+        <v>13.66683180123127</v>
       </c>
       <c r="P4" t="n">
-        <v>321.2372063406648</v>
+        <v>321.1586382105314</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23305,28 +23473,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9123997435052431</v>
+        <v>0.9212591563443127</v>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K5" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1665819818514641</v>
+        <v>0.1710485238700429</v>
       </c>
       <c r="M5" t="n">
-        <v>11.97738817671663</v>
+        <v>11.9660038506278</v>
       </c>
       <c r="N5" t="n">
-        <v>245.5743891941268</v>
+        <v>244.7197123257508</v>
       </c>
       <c r="O5" t="n">
-        <v>15.6708132907685</v>
+        <v>15.64351981894582</v>
       </c>
       <c r="P5" t="n">
-        <v>326.8896664690446</v>
+        <v>326.806417844028</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23383,28 +23551,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.905551906872614</v>
+        <v>0.9230274724518054</v>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K6" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1296403867058086</v>
+        <v>0.1348961039592609</v>
       </c>
       <c r="M6" t="n">
-        <v>14.25163063639055</v>
+        <v>14.27269488306785</v>
       </c>
       <c r="N6" t="n">
-        <v>324.0403891779203</v>
+        <v>324.4550973076649</v>
       </c>
       <c r="O6" t="n">
-        <v>18.00112188664696</v>
+        <v>18.01263715583215</v>
       </c>
       <c r="P6" t="n">
-        <v>329.0974213182787</v>
+        <v>328.9301428974085</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23461,28 +23629,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9339674188533401</v>
+        <v>1.001393387361503</v>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K7" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08919768777977</v>
+        <v>0.09983681304620562</v>
       </c>
       <c r="M7" t="n">
-        <v>17.82601816374316</v>
+        <v>18.10070973913649</v>
       </c>
       <c r="N7" t="n">
-        <v>550.925921924651</v>
+        <v>565.3180958570396</v>
       </c>
       <c r="O7" t="n">
-        <v>23.47181121951715</v>
+        <v>23.77641890312836</v>
       </c>
       <c r="P7" t="n">
-        <v>322.1164199949482</v>
+        <v>321.4959279927311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23539,28 +23707,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>1.001585644570808</v>
+        <v>1.063500295270086</v>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K8" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09746727701276969</v>
+        <v>0.1072932851951265</v>
       </c>
       <c r="M8" t="n">
-        <v>18.25573461775351</v>
+        <v>18.43358994021782</v>
       </c>
       <c r="N8" t="n">
-        <v>564.8441085185145</v>
+        <v>577.7092982531657</v>
       </c>
       <c r="O8" t="n">
-        <v>23.76644921982488</v>
+        <v>24.03558400066796</v>
       </c>
       <c r="P8" t="n">
-        <v>326.3019740207517</v>
+        <v>325.7209975942564</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23598,7 +23766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45634,11 +45802,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>-36.885750152610186,174.43792606727885</t>
-        </is>
-      </c>
+      <c r="B559" t="inlineStr"/>
       <c r="C559" t="inlineStr">
         <is>
           <t>-36.885016491460874,174.43790666701526</t>
@@ -45681,11 +45845,7 @@
           <t>2025-04-12 22:05:36+00:00</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>-36.88572982988893,174.4380365284148</t>
-        </is>
-      </c>
+      <c r="B560" t="inlineStr"/>
       <c r="C560" t="inlineStr">
         <is>
           <t>-36.88501242691915,174.4379287590346</t>
@@ -45737,9 +45897,197 @@
           <t>-36.8829360327671,174.43721362517974</t>
         </is>
       </c>
-      <c r="G561" t="inlineStr"/>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>-36.88238586253144,174.43648690924277</t>
+        </is>
+      </c>
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-36.885981140366034,174.43667052447745</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-36.8850090465051,174.43794713259334</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-36.884302674960864,174.4377793685161</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-36.883633877972606,174.43742240362536</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-36.882991963565686,174.43699382779258</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>-36.882366136365306,174.43655423239522</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>-36.88176358593713,174.4360792806007</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-36.886006069357926,174.4365350172463</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-36.88501637073198,174.43790732321386</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-36.88430920323638,174.4377438855019</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-36.883626702019555,174.43745526903726</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-36.88296493720058,174.4371000364986</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-36.882337156296366,174.43665313776438</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-36.88174008680022,174.43615010563178</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-36.88498190248337,174.43809466783352</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-36.88426782899523,174.43796876507238</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-36.88357050496136,174.43771264637243</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-36.882878931227445,174.43743802139016</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-36.88216173559043,174.43725181926635</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-36.88154596789613,174.43673516223572</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-36.88599912788642,174.4365727492934</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-36.88501361408769,174.43792230641535</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-36.884288970019604,174.43785385852175</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-36.883597635640655,174.43758839073138</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-36.882912626085385,174.43730560841567</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-36.882254177168825,174.43693633324787</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-36.88160752061579,174.43654964922513</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16972,6 +16972,66 @@
         <v>368.89</v>
       </c>
       <c r="I565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>493.69</v>
+      </c>
+      <c r="C566" t="n">
+        <v>335.94</v>
+      </c>
+      <c r="D566" t="n">
+        <v>332.7733333333333</v>
+      </c>
+      <c r="E566" t="n">
+        <v>343.4233333333333</v>
+      </c>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="n">
+        <v>289.6218181818182</v>
+      </c>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>509.99</v>
+      </c>
+      <c r="C567" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="D567" t="n">
+        <v>357.0466666666667</v>
+      </c>
+      <c r="E567" t="n">
+        <v>363.0266666666667</v>
+      </c>
+      <c r="F567" t="n">
+        <v>363.11</v>
+      </c>
+      <c r="G567" t="n">
+        <v>296.4881818181818</v>
+      </c>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -16988,7 +17048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23066,6 +23126,26 @@
       </c>
       <c r="B607" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -23239,28 +23319,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5201288381911521</v>
+        <v>0.5287282223490971</v>
       </c>
       <c r="J2" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01312797900597085</v>
+        <v>0.01372080922264152</v>
       </c>
       <c r="M2" t="n">
-        <v>19.90611610713031</v>
+        <v>19.82446220522833</v>
       </c>
       <c r="N2" t="n">
-        <v>1221.479926101148</v>
+        <v>1214.329946364755</v>
       </c>
       <c r="O2" t="n">
-        <v>34.94967705288774</v>
+        <v>34.84723728453599</v>
       </c>
       <c r="P2" t="n">
-        <v>480.9456604899037</v>
+        <v>480.8637388340827</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23317,28 +23397,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7275089561727902</v>
+        <v>0.7308387968411264</v>
       </c>
       <c r="J3" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K3" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1247656099268435</v>
+        <v>0.1265048000386512</v>
       </c>
       <c r="M3" t="n">
-        <v>11.88435797569256</v>
+        <v>11.87874417588578</v>
       </c>
       <c r="N3" t="n">
-        <v>222.0620701212506</v>
+        <v>221.6663961983521</v>
       </c>
       <c r="O3" t="n">
-        <v>14.90174721706319</v>
+        <v>14.88846520627133</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9267624626268</v>
+        <v>323.8956442353256</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23395,28 +23475,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8104481406164245</v>
+        <v>0.8127293993517464</v>
       </c>
       <c r="J4" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.174418838195492</v>
+        <v>0.1760155648813729</v>
       </c>
       <c r="M4" t="n">
-        <v>10.5287663717602</v>
+        <v>10.53646819304079</v>
       </c>
       <c r="N4" t="n">
-        <v>186.7822914831463</v>
+        <v>186.6375612977602</v>
       </c>
       <c r="O4" t="n">
-        <v>13.66683180123127</v>
+        <v>13.66153583231989</v>
       </c>
       <c r="P4" t="n">
-        <v>321.1586382105314</v>
+        <v>321.13715185886</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23473,28 +23553,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9212591563443127</v>
+        <v>0.9232614109374677</v>
       </c>
       <c r="J5" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K5" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1710485238700429</v>
+        <v>0.1726484759155476</v>
       </c>
       <c r="M5" t="n">
-        <v>11.9660038506278</v>
+        <v>11.95694617150785</v>
       </c>
       <c r="N5" t="n">
-        <v>244.7197123257508</v>
+        <v>244.1188494932991</v>
       </c>
       <c r="O5" t="n">
-        <v>15.64351981894582</v>
+        <v>15.62430316824719</v>
       </c>
       <c r="P5" t="n">
-        <v>326.806417844028</v>
+        <v>326.7874535843957</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23551,28 +23631,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9230274724518054</v>
+        <v>0.9273428223316061</v>
       </c>
       <c r="J6" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1348961039592609</v>
+        <v>0.1364333730101374</v>
       </c>
       <c r="M6" t="n">
-        <v>14.27269488306785</v>
+        <v>14.26508286395608</v>
       </c>
       <c r="N6" t="n">
-        <v>324.4550973076649</v>
+        <v>323.9426467543848</v>
       </c>
       <c r="O6" t="n">
-        <v>18.01263715583215</v>
+        <v>17.99840678377908</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9301428974085</v>
+        <v>328.8885765212308</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23629,28 +23709,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>1.001393387361503</v>
+        <v>0.9567660902336255</v>
       </c>
       <c r="J7" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K7" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09983681304620562</v>
+        <v>0.09065594415173228</v>
       </c>
       <c r="M7" t="n">
-        <v>18.10070973913649</v>
+        <v>18.24430825369972</v>
       </c>
       <c r="N7" t="n">
-        <v>565.3180958570396</v>
+        <v>576.5424801179319</v>
       </c>
       <c r="O7" t="n">
-        <v>23.77641890312836</v>
+        <v>24.01129900938164</v>
       </c>
       <c r="P7" t="n">
-        <v>321.4959279927311</v>
+        <v>321.9092642846304</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23710,7 +23790,7 @@
         <v>1.063500295270086</v>
       </c>
       <c r="J8" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K8" t="n">
         <v>373</v>
@@ -23766,7 +23846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46093,6 +46173,88 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-36.88599099930763,174.43661693405818</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-36.884971720913306,174.43815000719093</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-36.88426347378748,174.43799243659123</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-36.88357718454702,174.43768205463974</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-36.88202508339034,174.43771818138185</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-36.88602379520675,174.43643866378326</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-36.88501532441465,174.4379130102686</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-36.884312315342115,174.4377269703093</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-36.88362352642106,174.43746981306265</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-36.88293766578879,174.4372072077425</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-36.882046289854244,174.43764580917693</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I567"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16996,9 +16996,7 @@
         <v>343.4233333333333</v>
       </c>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="n">
-        <v>289.6218181818182</v>
-      </c>
+      <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
@@ -17027,13 +17025,71 @@
       <c r="F567" t="n">
         <v>363.11</v>
       </c>
-      <c r="G567" t="n">
-        <v>296.4881818181818</v>
-      </c>
+      <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>497.72</v>
+      </c>
+      <c r="C568" t="n">
+        <v>340.42</v>
+      </c>
+      <c r="D568" t="n">
+        <v>341.8833333333333</v>
+      </c>
+      <c r="E568" t="n">
+        <v>346.8833333333333</v>
+      </c>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>535.37</v>
+      </c>
+      <c r="C569" t="n">
+        <v>377.28</v>
+      </c>
+      <c r="D569" t="n">
+        <v>363.7688888888889</v>
+      </c>
+      <c r="E569" t="n">
+        <v>366.8388888888889</v>
+      </c>
+      <c r="F569" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="G569" t="n">
+        <v>357.3263636363636</v>
+      </c>
+      <c r="H569" t="n">
+        <v>372.71</v>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17048,7 +17104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23146,6 +23202,26 @@
       </c>
       <c r="B609" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -23319,28 +23395,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5287282223490971</v>
+        <v>0.5539105261464325</v>
       </c>
       <c r="J2" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01372080922264152</v>
+        <v>0.01515876256922999</v>
       </c>
       <c r="M2" t="n">
-        <v>19.82446220522833</v>
+        <v>19.82137041164653</v>
       </c>
       <c r="N2" t="n">
-        <v>1214.329946364755</v>
+        <v>1211.825140875923</v>
       </c>
       <c r="O2" t="n">
-        <v>34.84723728453599</v>
+        <v>34.8112789319198</v>
       </c>
       <c r="P2" t="n">
-        <v>480.8637388340827</v>
+        <v>480.6225100594349</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23397,28 +23473,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7308387968411264</v>
+        <v>0.7440414077989747</v>
       </c>
       <c r="J3" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K3" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1265048000386512</v>
+        <v>0.1302389541169077</v>
       </c>
       <c r="M3" t="n">
-        <v>11.87874417588578</v>
+        <v>11.90548980690652</v>
       </c>
       <c r="N3" t="n">
-        <v>221.6663961983521</v>
+        <v>223.2961898852973</v>
       </c>
       <c r="O3" t="n">
-        <v>14.88846520627133</v>
+        <v>14.94309840311899</v>
       </c>
       <c r="P3" t="n">
-        <v>323.8956442353256</v>
+        <v>323.7716636044684</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23475,28 +23551,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8127293993517464</v>
+        <v>0.82140270600697</v>
       </c>
       <c r="J4" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K4" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1760155648813729</v>
+        <v>0.1796474140887537</v>
       </c>
       <c r="M4" t="n">
-        <v>10.53646819304079</v>
+        <v>10.54036240241544</v>
       </c>
       <c r="N4" t="n">
-        <v>186.6375612977602</v>
+        <v>186.828518827923</v>
       </c>
       <c r="O4" t="n">
-        <v>13.66153583231989</v>
+        <v>13.66852292048863</v>
       </c>
       <c r="P4" t="n">
-        <v>321.13715185886</v>
+        <v>321.0551661257879</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23553,28 +23629,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9232614109374677</v>
+        <v>0.9280104867899353</v>
       </c>
       <c r="J5" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1726484759155476</v>
+        <v>0.1750277273367307</v>
       </c>
       <c r="M5" t="n">
-        <v>11.95694617150785</v>
+        <v>11.9487645278931</v>
       </c>
       <c r="N5" t="n">
-        <v>244.1188494932991</v>
+        <v>243.6618588461135</v>
       </c>
       <c r="O5" t="n">
-        <v>15.62430316824719</v>
+        <v>15.60967196471833</v>
       </c>
       <c r="P5" t="n">
-        <v>326.7874535843957</v>
+        <v>326.742234421712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23631,28 +23707,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9273428223316061</v>
+        <v>0.9355437847202343</v>
       </c>
       <c r="J6" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K6" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1364333730101374</v>
+        <v>0.1387468051599575</v>
       </c>
       <c r="M6" t="n">
-        <v>14.26508286395608</v>
+        <v>14.28014506944609</v>
       </c>
       <c r="N6" t="n">
-        <v>323.9426467543848</v>
+        <v>324.062237522364</v>
       </c>
       <c r="O6" t="n">
-        <v>17.99840678377908</v>
+        <v>18.00172873705089</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8885765212308</v>
+        <v>328.8091239574277</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23709,28 +23785,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9567660902336255</v>
+        <v>1.005476692127227</v>
       </c>
       <c r="J7" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K7" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09065594415173228</v>
+        <v>0.1009525416075212</v>
       </c>
       <c r="M7" t="n">
-        <v>18.24430825369972</v>
+        <v>18.08312894652427</v>
       </c>
       <c r="N7" t="n">
-        <v>576.5424801179319</v>
+        <v>564.1979524645972</v>
       </c>
       <c r="O7" t="n">
-        <v>24.01129900938164</v>
+        <v>23.75285145965842</v>
       </c>
       <c r="P7" t="n">
-        <v>321.9092642846304</v>
+        <v>321.4578479901887</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23787,28 +23863,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>1.063500295270086</v>
+        <v>1.072607833088259</v>
       </c>
       <c r="J8" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K8" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1072932851951265</v>
+        <v>0.1092708960682243</v>
       </c>
       <c r="M8" t="n">
-        <v>18.43358994021782</v>
+        <v>18.43842247021093</v>
       </c>
       <c r="N8" t="n">
-        <v>577.7092982531657</v>
+        <v>577.1544796136154</v>
       </c>
       <c r="O8" t="n">
-        <v>24.03558400066796</v>
+        <v>24.02403961896532</v>
       </c>
       <c r="P8" t="n">
-        <v>325.7209975942564</v>
+        <v>325.6344995981165</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23846,7 +23922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I567"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46200,11 +46276,7 @@
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>-36.88202508339034,174.43771818138185</t>
-        </is>
-      </c>
+      <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
@@ -46243,15 +46315,93 @@
           <t>-36.88293766578879,174.4372072077425</t>
         </is>
       </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>-36.882046289854244,174.43764580917693</t>
-        </is>
-      </c>
+      <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-36.885999107766196,174.43657285866163</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-36.88498073542721,174.43810101108082</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-36.88428180453031,174.43789280475332</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-36.883585363942544,174.43764459389456</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-36.88607485970607,174.43616108680152</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-36.885054903191936,174.43769788637368</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-36.884325841348755,174.4376534523937</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-36.883632538392014,174.43742853882355</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-36.882963113666044,174.43710720264212</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-36.88223418402734,174.43700456644845</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-36.88162066375336,174.43651003712847</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17088,6 +17088,99 @@
         <v>372.71</v>
       </c>
       <c r="I569" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>485.13</v>
+      </c>
+      <c r="C570" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="D570" t="n">
+        <v>353.8644444444445</v>
+      </c>
+      <c r="E570" t="n">
+        <v>357.4644444444444</v>
+      </c>
+      <c r="F570" t="n">
+        <v>359.82</v>
+      </c>
+      <c r="G570" t="n">
+        <v>375.0527272727272</v>
+      </c>
+      <c r="H570" t="n">
+        <v>360.11</v>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>352.66</v>
+      </c>
+      <c r="C571" t="n">
+        <v>342.83</v>
+      </c>
+      <c r="D571" t="n">
+        <v>348.1411111111111</v>
+      </c>
+      <c r="E571" t="n">
+        <v>347.3411111111111</v>
+      </c>
+      <c r="F571" t="n">
+        <v>340.27</v>
+      </c>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="C572" t="n">
+        <v>353.39</v>
+      </c>
+      <c r="D572" t="n">
+        <v>351.0477777777777</v>
+      </c>
+      <c r="E572" t="n">
+        <v>355.6077777777778</v>
+      </c>
+      <c r="F572" t="n">
+        <v>343.59</v>
+      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="n">
+        <v>356.93</v>
+      </c>
+      <c r="I572" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17104,7 +17197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B611"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23222,6 +23315,36 @@
       </c>
       <c r="B611" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -23395,28 +23518,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5539105261464325</v>
+        <v>0.4064000835767383</v>
       </c>
       <c r="J2" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01515876256922999</v>
+        <v>0.00771615466969422</v>
       </c>
       <c r="M2" t="n">
-        <v>19.82137041164653</v>
+        <v>20.57986213901753</v>
       </c>
       <c r="N2" t="n">
-        <v>1211.825140875923</v>
+        <v>1302.594698302883</v>
       </c>
       <c r="O2" t="n">
-        <v>34.8112789319198</v>
+        <v>36.09147680966911</v>
       </c>
       <c r="P2" t="n">
-        <v>480.6225100594349</v>
+        <v>482.039227258264</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23473,28 +23596,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7440414077989747</v>
+        <v>0.7591296372842019</v>
       </c>
       <c r="J3" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K3" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1302389541169077</v>
+        <v>0.1355070440561834</v>
       </c>
       <c r="M3" t="n">
-        <v>11.90548980690652</v>
+        <v>11.90892268597289</v>
       </c>
       <c r="N3" t="n">
-        <v>223.2961898852973</v>
+        <v>223.6718627794031</v>
       </c>
       <c r="O3" t="n">
-        <v>14.94309840311899</v>
+        <v>14.95566323435384</v>
       </c>
       <c r="P3" t="n">
-        <v>323.7716636044684</v>
+        <v>323.6298422874397</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23551,28 +23674,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.82140270600697</v>
+        <v>0.8317491743206521</v>
       </c>
       <c r="J4" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K4" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1796474140887537</v>
+        <v>0.1849880516455705</v>
       </c>
       <c r="M4" t="n">
-        <v>10.54036240241544</v>
+        <v>10.52939360949919</v>
       </c>
       <c r="N4" t="n">
-        <v>186.828518827923</v>
+        <v>186.0984097568748</v>
       </c>
       <c r="O4" t="n">
-        <v>13.66852292048863</v>
+        <v>13.64178909662786</v>
       </c>
       <c r="P4" t="n">
-        <v>321.0551661257879</v>
+        <v>320.9572085662075</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23629,28 +23752,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9280104867899353</v>
+        <v>0.9309339697940612</v>
       </c>
       <c r="J5" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K5" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1750277273367307</v>
+        <v>0.1777148070395705</v>
       </c>
       <c r="M5" t="n">
-        <v>11.9487645278931</v>
+        <v>11.90508665169942</v>
       </c>
       <c r="N5" t="n">
-        <v>243.6618588461135</v>
+        <v>242.2973149621897</v>
       </c>
       <c r="O5" t="n">
-        <v>15.60967196471833</v>
+        <v>15.56590231763612</v>
       </c>
       <c r="P5" t="n">
-        <v>326.742234421712</v>
+        <v>326.7144046902301</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23707,28 +23830,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9355437847202343</v>
+        <v>0.9289519895675055</v>
       </c>
       <c r="J6" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1387468051599575</v>
+        <v>0.138422911687806</v>
       </c>
       <c r="M6" t="n">
-        <v>14.28014506944609</v>
+        <v>14.24591162237782</v>
       </c>
       <c r="N6" t="n">
-        <v>324.062237522364</v>
+        <v>322.5137260719997</v>
       </c>
       <c r="O6" t="n">
-        <v>18.00172873705089</v>
+        <v>17.95866715744795</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8091239574277</v>
+        <v>328.8731612695231</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23785,28 +23908,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>1.005476692127227</v>
+        <v>1.016869629738136</v>
       </c>
       <c r="J7" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1009525416075212</v>
+        <v>0.103149783260621</v>
       </c>
       <c r="M7" t="n">
-        <v>18.08312894652427</v>
+        <v>18.1110795414858</v>
       </c>
       <c r="N7" t="n">
-        <v>564.1979524645972</v>
+        <v>564.6303376581922</v>
       </c>
       <c r="O7" t="n">
-        <v>23.75285145965842</v>
+        <v>23.76195146990651</v>
       </c>
       <c r="P7" t="n">
-        <v>321.4578479901887</v>
+        <v>321.3514869905692</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23863,28 +23986,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>1.072607833088259</v>
+        <v>1.077207876744068</v>
       </c>
       <c r="J8" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1092708960682243</v>
+        <v>0.1110844470179494</v>
       </c>
       <c r="M8" t="n">
-        <v>18.43842247021093</v>
+        <v>18.36763518685182</v>
       </c>
       <c r="N8" t="n">
-        <v>577.1544796136154</v>
+        <v>574.2260874869728</v>
       </c>
       <c r="O8" t="n">
-        <v>24.02403961896532</v>
+        <v>23.96301499158595</v>
       </c>
       <c r="P8" t="n">
-        <v>325.6344995981165</v>
+        <v>325.5907453514245</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23922,7 +24045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46405,6 +46528,135 @@
         </is>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-36.88597377632467,174.43671055323009</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-36.88504116032511,174.43777258371605</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-36.8843059122714,174.4377617728304</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-36.883610377480935,174.43753003421642</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-36.88292871138234,174.43724239668657</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>-36.88228892993572,174.4368177275494</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>-36.88157731199399,174.43664069477666</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-36.88570723331829,174.4381593480013</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-36.88498558474452,174.43807465379334</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-36.88429439610873,174.43782436631568</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-36.883586446122465,174.43763963762322</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-36.88287550185573,174.43745149798661</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-36.885770515472615,174.43781538734598</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-36.88500683313723,174.43795916289875</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-36.88430024474055,174.43779257743105</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-36.88360598836537,174.43755013599906</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-36.88288453797478,174.43741598822186</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>-36.88156637081341,174.43667367025438</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17099,9 +17099,7 @@
           <t>2025-08-01 22:11:42+00:00</t>
         </is>
       </c>
-      <c r="B570" t="n">
-        <v>485.13</v>
-      </c>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="n">
         <v>370.45</v>
       </c>
@@ -17132,9 +17130,7 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B571" t="n">
-        <v>352.66</v>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="n">
         <v>342.83</v>
       </c>
@@ -17147,7 +17143,9 @@
       <c r="F571" t="n">
         <v>340.27</v>
       </c>
-      <c r="G571" t="inlineStr"/>
+      <c r="G571" t="n">
+        <v>326.2981818181818</v>
+      </c>
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
@@ -17161,9 +17159,7 @@
           <t>2025-08-10 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B572" t="n">
-        <v>384.11</v>
-      </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="n">
         <v>353.39</v>
       </c>
@@ -17181,6 +17177,72 @@
         <v>356.93</v>
       </c>
       <c r="I572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>490.81</v>
+      </c>
+      <c r="C573" t="n">
+        <v>359.16</v>
+      </c>
+      <c r="D573" t="n">
+        <v>356.4666666666667</v>
+      </c>
+      <c r="E573" t="n">
+        <v>361.3566666666667</v>
+      </c>
+      <c r="F573" t="n">
+        <v>362.49</v>
+      </c>
+      <c r="G573" t="n">
+        <v>359.0763636363636</v>
+      </c>
+      <c r="H573" t="n">
+        <v>357.39</v>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>496.59</v>
+      </c>
+      <c r="C574" t="n">
+        <v>360.27</v>
+      </c>
+      <c r="D574" t="n">
+        <v>358.6011111111111</v>
+      </c>
+      <c r="E574" t="n">
+        <v>350.9011111111111</v>
+      </c>
+      <c r="F574" t="n">
+        <v>350.78</v>
+      </c>
+      <c r="G574" t="n">
+        <v>351.9318181818182</v>
+      </c>
+      <c r="H574" t="n">
+        <v>355.41</v>
+      </c>
+      <c r="I574" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17197,7 +17259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23345,6 +23407,26 @@
       </c>
       <c r="B614" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -23518,28 +23600,28 @@
         <v>0.0441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4064000835767383</v>
+        <v>0.5523120271923324</v>
       </c>
       <c r="J2" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00771615466969422</v>
+        <v>0.0152594974206347</v>
       </c>
       <c r="M2" t="n">
-        <v>20.57986213901753</v>
+        <v>19.71379981819724</v>
       </c>
       <c r="N2" t="n">
-        <v>1302.594698302883</v>
+        <v>1204.12261255075</v>
       </c>
       <c r="O2" t="n">
-        <v>36.09147680966911</v>
+        <v>34.70046991829866</v>
       </c>
       <c r="P2" t="n">
-        <v>482.039227258264</v>
+        <v>480.6378998030012</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23596,28 +23678,28 @@
         <v>0.0445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7591296372842019</v>
+        <v>0.7722431909097003</v>
       </c>
       <c r="J3" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K3" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1355070440561834</v>
+        <v>0.1400625238304716</v>
       </c>
       <c r="M3" t="n">
-        <v>11.90892268597289</v>
+        <v>11.92759739742545</v>
       </c>
       <c r="N3" t="n">
-        <v>223.6718627794031</v>
+        <v>223.831991593463</v>
       </c>
       <c r="O3" t="n">
-        <v>14.95566323435384</v>
+        <v>14.96101572733158</v>
       </c>
       <c r="P3" t="n">
-        <v>323.6298422874397</v>
+        <v>323.5059236404977</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23674,28 +23756,28 @@
         <v>0.0506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8317491743206521</v>
+        <v>0.8436411562171106</v>
       </c>
       <c r="J4" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1849880516455705</v>
+        <v>0.1898915368566862</v>
       </c>
       <c r="M4" t="n">
-        <v>10.52939360949919</v>
+        <v>10.55099244580059</v>
       </c>
       <c r="N4" t="n">
-        <v>186.0984097568748</v>
+        <v>186.2394733977115</v>
       </c>
       <c r="O4" t="n">
-        <v>13.64178909662786</v>
+        <v>13.64695839363891</v>
       </c>
       <c r="P4" t="n">
-        <v>320.9572085662075</v>
+        <v>320.8440353872203</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23752,28 +23834,28 @@
         <v>0.0498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9309339697940612</v>
+        <v>0.9347903389488373</v>
       </c>
       <c r="J5" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K5" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1777148070395705</v>
+        <v>0.1800509761777153</v>
       </c>
       <c r="M5" t="n">
-        <v>11.90508665169942</v>
+        <v>11.87770658559075</v>
       </c>
       <c r="N5" t="n">
-        <v>242.2973149621897</v>
+        <v>241.5098460469791</v>
       </c>
       <c r="O5" t="n">
-        <v>15.56590231763612</v>
+        <v>15.54058705605998</v>
       </c>
       <c r="P5" t="n">
-        <v>326.7144046902301</v>
+        <v>326.6775347050738</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23830,28 +23912,28 @@
         <v>0.0447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9289519895675055</v>
+        <v>0.9318054766625257</v>
       </c>
       <c r="J6" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K6" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.138422911687806</v>
+        <v>0.1401593113983437</v>
       </c>
       <c r="M6" t="n">
-        <v>14.24591162237782</v>
+        <v>14.20854569521631</v>
       </c>
       <c r="N6" t="n">
-        <v>322.5137260719997</v>
+        <v>321.24413647878</v>
       </c>
       <c r="O6" t="n">
-        <v>17.95866715744795</v>
+        <v>17.92328475695178</v>
       </c>
       <c r="P6" t="n">
-        <v>328.8731612695231</v>
+        <v>328.8453776758749</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23908,28 +23990,28 @@
         <v>0.0617</v>
       </c>
       <c r="I7" t="n">
-        <v>1.016869629738136</v>
+        <v>1.014290729589292</v>
       </c>
       <c r="J7" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K7" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.103149783260621</v>
+        <v>0.1037148558185105</v>
       </c>
       <c r="M7" t="n">
-        <v>18.1110795414858</v>
+        <v>18.06822195117746</v>
       </c>
       <c r="N7" t="n">
-        <v>564.6303376581922</v>
+        <v>562.060967539174</v>
       </c>
       <c r="O7" t="n">
-        <v>23.76195146990651</v>
+        <v>23.70782502759741</v>
       </c>
       <c r="P7" t="n">
-        <v>321.3514869905692</v>
+        <v>321.3753320288045</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23986,28 +24068,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>1.077207876744068</v>
+        <v>1.079648375968079</v>
       </c>
       <c r="J8" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K8" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1110844470179494</v>
+        <v>0.1125355288748704</v>
       </c>
       <c r="M8" t="n">
-        <v>18.36763518685182</v>
+        <v>18.28478019611792</v>
       </c>
       <c r="N8" t="n">
-        <v>574.2260874869728</v>
+        <v>571.2295752583668</v>
       </c>
       <c r="O8" t="n">
-        <v>23.96301499158595</v>
+        <v>23.90040952072509</v>
       </c>
       <c r="P8" t="n">
-        <v>325.5907453514245</v>
+        <v>325.5674112413767</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24045,7 +24127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46534,11 +46616,7 @@
           <t>2025-08-01 22:11:42+00:00</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>-36.88597377632467,174.43671055323009</t>
-        </is>
-      </c>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
           <t>-36.88504116032511,174.43777258371605</t>
@@ -46581,11 +46659,7 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>-36.88570723331829,174.4381593480013</t>
-        </is>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr">
         <is>
           <t>-36.88498558474452,174.43807465379334</t>
@@ -46606,7 +46680,11 @@
           <t>-36.88287550185573,174.43745149798661</t>
         </is>
       </c>
-      <c r="G571" t="inlineStr"/>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>-36.88213835623384,174.4373316081192</t>
+        </is>
+      </c>
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
@@ -46620,11 +46698,7 @@
           <t>2025-08-10 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>-36.885770515472615,174.43781538734598</t>
-        </is>
-      </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr">
         <is>
           <t>-36.88500683313723,174.43795916289875</t>
@@ -46652,6 +46726,100 @@
         </is>
       </c>
       <c r="I572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-36.88598520466731,174.4366484321023</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-36.88501844324433,174.43789605847041</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-36.88431114830275,174.4377333135067</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-36.88361957859022,174.4374878938468</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-36.88293597833303,174.4372138390943</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>-36.88223958872112,174.4369861211619</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>-36.88156795350047,174.4366689002173</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-36.88599683418019,174.43658521727258</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-36.885020676727336,174.43788391879474</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-36.88431544309543,174.43770997005325</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-36.88359486190297,174.4376010941877</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-36.88290410712453,174.4373390860208</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>-36.882217523514626,174.43706142582386</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>-36.88156114106357,174.43668943211455</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17245,6 +17245,27 @@
       <c r="I574" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="n">
+        <v>352</v>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17259,7 +17280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23427,6 +23448,16 @@
       </c>
       <c r="B616" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -24127,7 +24158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46825,6 +46856,29 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>-36.88154940852518,174.43672479259536</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -23634,7 +23634,7 @@
         <v>0.5523120271923324</v>
       </c>
       <c r="J2" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K2" t="n">
         <v>312</v>
@@ -23712,7 +23712,7 @@
         <v>0.7722431909097003</v>
       </c>
       <c r="J3" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K3" t="n">
         <v>457</v>
@@ -23790,7 +23790,7 @@
         <v>0.8436411562171106</v>
       </c>
       <c r="J4" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K4" t="n">
         <v>452</v>
@@ -23868,7 +23868,7 @@
         <v>0.9347903389488373</v>
       </c>
       <c r="J5" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K5" t="n">
         <v>481</v>
@@ -23946,7 +23946,7 @@
         <v>0.9318054766625257</v>
       </c>
       <c r="J6" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K6" t="n">
         <v>435</v>
@@ -24024,7 +24024,7 @@
         <v>1.014290729589292</v>
       </c>
       <c r="J7" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K7" t="n">
         <v>424</v>
@@ -24099,28 +24099,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>1.079648375968079</v>
+        <v>1.078808311997091</v>
       </c>
       <c r="J8" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K8" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1125355288748704</v>
+        <v>0.1128805998630048</v>
       </c>
       <c r="M8" t="n">
-        <v>18.28478019611792</v>
+        <v>18.24119178858613</v>
       </c>
       <c r="N8" t="n">
-        <v>571.2295752583668</v>
+        <v>569.7311033124586</v>
       </c>
       <c r="O8" t="n">
-        <v>23.90040952072509</v>
+        <v>23.86904068689101</v>
       </c>
       <c r="P8" t="n">
-        <v>325.5674112413767</v>
+        <v>325.57545701341</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0182/nzd0182.xlsx
+++ b/data/nzd0182/nzd0182.xlsx
@@ -23622,13 +23622,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0371</v>
+        <v>0.0149</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0441</v>
+        <v>0.0155</v>
       </c>
       <c r="I2" t="n">
         <v>0.5523120271923324</v>
@@ -23700,13 +23700,13 @@
         <v>0.8332836532581606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0389</v>
+        <v>0.0399</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0445</v>
+        <v>0.0462</v>
       </c>
       <c r="I3" t="n">
         <v>0.7722431909097003</v>
@@ -23781,10 +23781,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.043</v>
+        <v>0.0438</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0506</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
         <v>0.8436012426763481</v>
@@ -23856,13 +23856,13 @@
         <v>0.4998509597703068</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04</v>
+        <v>0.0441</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0498</v>
+        <v>0.0571</v>
       </c>
       <c r="I5" t="n">
         <v>0.9347472580377089</v>
@@ -23934,13 +23934,13 @@
         <v>0.3331497654802286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0367</v>
+        <v>0.0346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0447</v>
+        <v>0.0359</v>
       </c>
       <c r="I6" t="n">
         <v>0.9318054766625257</v>
@@ -24012,13 +24012,13 @@
         <v>0.1664334187373645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0461</v>
+        <v>0.0387</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0617</v>
+        <v>0.0523</v>
       </c>
       <c r="I7" t="n">
         <v>1.014299996182213</v>
@@ -24093,10 +24093,10 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0379</v>
+        <v>0.0338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0463</v>
+        <v>0.0455</v>
       </c>
       <c r="I8" t="n">
         <v>1.078808311997091</v>
